--- a/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie Jacquemin\Documents\GitHub\Swate-templates_myfork\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01CC121-D978-A64E-A0D6-B16DF2EDE13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E28E3C-1DE0-47A7-BD0F-86212CAB2FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23940" yWindow="-20600" windowWidth="33060" windowHeight="13860" xr2:uid="{AFDC793D-D626-4A44-B458-3FB325626DEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFDC793D-D626-4A44-B458-3FB325626DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Event_protocol" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t/>
   </si>
@@ -417,8 +417,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{132A64E4-2D93-45EF-A5CA-98797D14BF2C}" name="annotationTableChattyLadybug2" displayName="annotationTableChattyLadybug2" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3" xr:uid="{BB810549-720D-4D96-96A1-62AC07F9F7B4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{132A64E4-2D93-45EF-A5CA-98797D14BF2C}" name="annotationTableChattyLadybug2" displayName="annotationTableChattyLadybug2" ref="A1:H2" totalsRowShown="0">
+  <autoFilter ref="A1:H2" xr:uid="{BB810549-720D-4D96-96A1-62AC07F9F7B4}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5F670E3A-3697-44B8-937F-07F2762CB364}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{03C7B5F7-5AC1-4A7A-8025-35F1DACFDBDA}" name="Protocol Type" dataDxfId="5"/>
@@ -748,25 +748,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1930ADE7-ECF3-46CF-8A60-BDAD15E8B5DC}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="27" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -792,7 +792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -809,20 +809,6 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -842,12 +828,12 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -855,7 +841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -863,7 +849,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -871,7 +857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -879,7 +865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -887,7 +873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -895,37 +881,37 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -951,25 +937,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -977,7 +963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -985,13 +971,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
@@ -999,25 +985,25 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
@@ -1025,13 +1011,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -1039,13 +1025,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>36</v>
       </c>
